--- a/data/trans_dic/P33B_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R3-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.2580899424320769</v>
+        <v>0.2580899424320768</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.3801299462771483</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3296931089707497</v>
+        <v>0.3296931089707496</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2285701821460238</v>
+        <v>0.2269634319392431</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3529767671163502</v>
+        <v>0.3545034192598109</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3101696814859211</v>
+        <v>0.3082594845231096</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2938120521395573</v>
+        <v>0.2925217146308821</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4069515380701565</v>
+        <v>0.4071370918919672</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3543647147012504</v>
+        <v>0.3495992440898114</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1205824613012969</v>
+        <v>0.1222699094279433</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1692249390795868</v>
+        <v>0.1679469640451774</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1487004741245623</v>
+        <v>0.1494842588395379</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1522455135483318</v>
+        <v>0.1503964954215501</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1990630905458288</v>
+        <v>0.1989666909057305</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1702395325047825</v>
+        <v>0.1711836737252235</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1035522246803299</v>
+        <v>0.1035374981570491</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1271465694443683</v>
+        <v>0.1255719664969527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1228712603670978</v>
+        <v>0.1242867319434477</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1611843586842484</v>
+        <v>0.1622200795554273</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1703106553168829</v>
+        <v>0.1752569650976244</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1596904293703327</v>
+        <v>0.1604363249074054</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1420209259984561</v>
+        <v>0.1423634127658117</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2076875075304</v>
+        <v>0.2095090102873598</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1796213622302725</v>
+        <v>0.1802412042943918</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1683404859618956</v>
+        <v>0.1665439211803064</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2308692765311087</v>
+        <v>0.2311350603785312</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1968044508478424</v>
+        <v>0.197143381623966</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>132234</v>
+        <v>131305</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>289905</v>
+        <v>291159</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>434189</v>
+        <v>431515</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>169979</v>
+        <v>169232</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>334235</v>
+        <v>334388</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>496056</v>
+        <v>489385</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>268837</v>
+        <v>272599</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>367454</v>
+        <v>364679</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>654412</v>
+        <v>657862</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>339429</v>
+        <v>335307</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>432244</v>
+        <v>432035</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>749203</v>
+        <v>753358</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>73584</v>
+        <v>73574</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>93437</v>
+        <v>92280</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>177608</v>
+        <v>179654</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>114537</v>
+        <v>115273</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>125157</v>
+        <v>128792</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>230829</v>
+        <v>231907</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>499717</v>
+        <v>500922</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>774173</v>
+        <v>780963</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1301572</v>
+        <v>1306063</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>592325</v>
+        <v>586004</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>860585</v>
+        <v>861576</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1426084</v>
+        <v>1428540</v>
       </c>
     </row>
     <row r="20">
